--- a/tables/DE/exp3/DE_table2_F1_dim10.xlsx
+++ b/tables/DE/exp3/DE_table2_F1_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>411412443.9842802</v>
       </c>
       <c r="AZ2" t="n">
-        <v>299107610.9535688</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>463273235.8860849</v>
+        <v>466556548.3847353</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>478050037.2346272</v>
@@ -1011,15 +1002,12 @@
         <v>282709567.4006416</v>
       </c>
       <c r="AZ3" t="n">
-        <v>299107610.9535688</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>244683035.9983479</v>
+        <v>243594544.4992435</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>33</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>17866244.475282</v>
@@ -1172,15 +1160,12 @@
         <v>7056435.98095952</v>
       </c>
       <c r="AZ4" t="n">
-        <v>18703574.79706786</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>30404646.68260331</v>
+        <v>30638668.12031402</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>333</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>2617002.65490469</v>
@@ -1333,15 +1318,12 @@
         <v>3245917.41261801</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2331521.58067714</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>1323244.09022164</v>
+        <v>1303078.54041253</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>666</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>492767.35039712</v>
@@ -1494,15 +1476,12 @@
         <v>1398016.62871213</v>
       </c>
       <c r="AZ6" t="n">
-        <v>924056.63632113</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>419754.8153875</v>
+        <v>409668.77896883</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>1000</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>87110.67476327</v>
@@ -1655,15 +1634,12 @@
         <v>408250.83768571</v>
       </c>
       <c r="AZ7" t="n">
-        <v>257424.63594256</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>172352.78887964</v>
+        <v>170651.35193839</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>1333</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>61221.64549224</v>
@@ -1816,15 +1792,12 @@
         <v>261403.76266447</v>
       </c>
       <c r="AZ8" t="n">
-        <v>125455.77350602</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>101875.6361258</v>
+        <v>101404.0333782</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>1666</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>24208.59125397</v>
@@ -1977,15 +1950,12 @@
         <v>158055.09121995</v>
       </c>
       <c r="AZ9" t="n">
-        <v>124636.16568789</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>65535.02964257</v>
+        <v>64353.00692167</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1999</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>23329.36473455</v>
@@ -2138,15 +2108,12 @@
         <v>67105.80272281</v>
       </c>
       <c r="AZ10" t="n">
-        <v>64875.88302695</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>47762.87504739</v>
+        <v>47420.6148878</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>2332</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>17216.366374</v>
@@ -2299,15 +2266,12 @@
         <v>45069.54385143</v>
       </c>
       <c r="AZ11" t="n">
-        <v>50753.17034499</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>34580.72654441</v>
+        <v>34257.2776684</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>2666</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>14014.26952074</v>
@@ -2460,15 +2424,12 @@
         <v>34866.32022563</v>
       </c>
       <c r="AZ12" t="n">
-        <v>38759.55958687</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>28835.34815166</v>
+        <v>28636.86392296</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>2999</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>13669.81922435</v>
@@ -2621,15 +2582,12 @@
         <v>25234.16156482</v>
       </c>
       <c r="AZ13" t="n">
-        <v>36225.65383388</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>24610.91559279</v>
+        <v>24378.62082797</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>3332</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>13093.69879711</v>
@@ -2782,10 +2740,7 @@
         <v>23644.69655942</v>
       </c>
       <c r="AZ14" t="n">
-        <v>36029.0019593</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>22348.50974516</v>
+        <v>22074.89990088</v>
       </c>
     </row>
   </sheetData>
